--- a/data/probabilidade_vitoria_jogos_futuros_sub_12.xlsx
+++ b/data/probabilidade_vitoria_jogos_futuros_sub_12.xlsx
@@ -465,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.005</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -476,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.145</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -487,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.325</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.06</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -509,7 +509,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.005</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -520,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.075</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -531,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.02</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -542,7 +542,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.175</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -553,7 +553,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -564,7 +564,7 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0.105</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -575,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -586,7 +586,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0.285</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -597,7 +597,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.26</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -608,7 +608,7 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -619,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>0.005</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -630,7 +630,7 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -641,7 +641,7 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>0.28</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -652,7 +652,7 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>0.195</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -663,7 +663,7 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -674,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -696,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.945</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -707,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>0.9</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>0.575</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -729,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <v>0.995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -740,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>0.99</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -762,7 +762,7 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>0.805</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -784,7 +784,7 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -795,7 +795,7 @@
         <v>15</v>
       </c>
       <c r="C32">
-        <v>0.95</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -806,7 +806,7 @@
         <v>16</v>
       </c>
       <c r="C33">
-        <v>0.92</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -817,7 +817,7 @@
         <v>17</v>
       </c>
       <c r="C34">
-        <v>0.805</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -828,7 +828,7 @@
         <v>18</v>
       </c>
       <c r="C35">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -839,7 +839,7 @@
         <v>19</v>
       </c>
       <c r="C36">
-        <v>0.575</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -850,7 +850,7 @@
         <v>20</v>
       </c>
       <c r="C37">
-        <v>0.8149999999999999</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -861,7 +861,7 @@
         <v>21</v>
       </c>
       <c r="C38">
-        <v>0.84</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -872,7 +872,7 @@
         <v>22</v>
       </c>
       <c r="C39">
-        <v>0.675</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -894,7 +894,7 @@
         <v>4</v>
       </c>
       <c r="C41">
-        <v>0.095</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -905,7 +905,7 @@
         <v>6</v>
       </c>
       <c r="C42">
-        <v>0.825</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -916,7 +916,7 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>0.365</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -927,7 +927,7 @@
         <v>8</v>
       </c>
       <c r="C44">
-        <v>0.115</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -938,7 +938,7 @@
         <v>9</v>
       </c>
       <c r="C45">
-        <v>0.44</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -949,7 +949,7 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -960,7 +960,7 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>0.735</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -971,7 +971,7 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <v>0.04</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -982,7 +982,7 @@
         <v>13</v>
       </c>
       <c r="C49">
-        <v>0.505</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -993,7 +993,7 @@
         <v>14</v>
       </c>
       <c r="C50">
-        <v>0.1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="C51">
-        <v>0.86</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>16</v>
       </c>
       <c r="C52">
-        <v>0.85</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>17</v>
       </c>
       <c r="C53">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="C54">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>19</v>
       </c>
       <c r="C55">
-        <v>0.135</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>20</v>
       </c>
       <c r="C56">
-        <v>0.78</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>21</v>
       </c>
       <c r="C57">
-        <v>0.515</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>22</v>
       </c>
       <c r="C58">
-        <v>0.645</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>0.325</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>0.015</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="C61">
-        <v>0.8149999999999999</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="C62">
-        <v>0.295</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="C64">
-        <v>0.775</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>0.055</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="C66">
-        <v>0.66</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>12</v>
       </c>
       <c r="C67">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>13</v>
       </c>
       <c r="C68">
-        <v>0.82</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>15</v>
       </c>
       <c r="C70">
-        <v>0.79</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="C71">
-        <v>0.8149999999999999</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>17</v>
       </c>
       <c r="C72">
-        <v>0.375</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>18</v>
       </c>
       <c r="C73">
-        <v>0.01</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1257,7 +1257,7 @@
         <v>19</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>20</v>
       </c>
       <c r="C75">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>21</v>
       </c>
       <c r="C76">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="C77">
-        <v>0.435</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="C78">
-        <v>0.475</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="C79">
-        <v>0.54</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="C80">
-        <v>0.87</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>6</v>
       </c>
       <c r="C81">
-        <v>0.8149999999999999</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1345,7 +1345,7 @@
         <v>8</v>
       </c>
       <c r="C82">
-        <v>0.255</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>0.89</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="C84">
-        <v>0.54</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>0.795</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>12</v>
       </c>
       <c r="C86">
-        <v>0.605</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1400,7 +1400,7 @@
         <v>13</v>
       </c>
       <c r="C87">
-        <v>0.895</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="C88">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>15</v>
       </c>
       <c r="C89">
-        <v>0.865</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1433,7 +1433,7 @@
         <v>16</v>
       </c>
       <c r="C90">
-        <v>0.87</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>17</v>
       </c>
       <c r="C91">
-        <v>0.605</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1455,7 +1455,7 @@
         <v>18</v>
       </c>
       <c r="C92">
-        <v>0.375</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1466,7 +1466,7 @@
         <v>19</v>
       </c>
       <c r="C93">
-        <v>0.255</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1477,7 +1477,7 @@
         <v>20</v>
       </c>
       <c r="C94">
-        <v>0.73</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>21</v>
       </c>
       <c r="C95">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1499,7 +1499,7 @@
         <v>22</v>
       </c>
       <c r="C96">
-        <v>0.545</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1510,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C98">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1532,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C99">
-        <v>0.6899999999999999</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>6</v>
       </c>
       <c r="C100">
-        <v>0.895</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>7</v>
       </c>
       <c r="C101">
-        <v>0.845</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="C102">
-        <v>0.945</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1576,7 +1576,7 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>0.88</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1587,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="C104">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1598,7 +1598,7 @@
         <v>12</v>
       </c>
       <c r="C105">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1609,7 +1609,7 @@
         <v>13</v>
       </c>
       <c r="C106">
-        <v>0.915</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1620,7 +1620,7 @@
         <v>14</v>
       </c>
       <c r="C107">
-        <v>0.775</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1631,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="C108">
-        <v>0.955</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1642,7 +1642,7 @@
         <v>16</v>
       </c>
       <c r="C109">
-        <v>0.6899999999999999</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1653,7 +1653,7 @@
         <v>17</v>
       </c>
       <c r="C110">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1664,7 +1664,7 @@
         <v>18</v>
       </c>
       <c r="C111">
-        <v>0.635</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>19</v>
       </c>
       <c r="C112">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1686,7 +1686,7 @@
         <v>20</v>
       </c>
       <c r="C113">
-        <v>0.855</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1697,7 +1697,7 @@
         <v>21</v>
       </c>
       <c r="C114">
-        <v>0.855</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1708,7 +1708,7 @@
         <v>22</v>
       </c>
       <c r="C115">
-        <v>0.53</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1719,7 +1719,7 @@
         <v>3</v>
       </c>
       <c r="C116">
-        <v>0.315</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1730,7 +1730,7 @@
         <v>4</v>
       </c>
       <c r="C117">
-        <v>0.13</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1741,7 +1741,7 @@
         <v>5</v>
       </c>
       <c r="C118">
-        <v>0.575</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1752,7 +1752,7 @@
         <v>6</v>
       </c>
       <c r="C119">
-        <v>0.745</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="C120">
-        <v>0.315</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1774,7 +1774,7 @@
         <v>8</v>
       </c>
       <c r="C121">
-        <v>0.125</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1785,7 +1785,7 @@
         <v>10</v>
       </c>
       <c r="C122">
-        <v>0.145</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="C123">
-        <v>0.58</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1807,7 +1807,7 @@
         <v>12</v>
       </c>
       <c r="C124">
-        <v>0.61</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1818,7 +1818,7 @@
         <v>13</v>
       </c>
       <c r="C125">
-        <v>0.535</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1829,7 +1829,7 @@
         <v>14</v>
       </c>
       <c r="C126">
-        <v>0.15</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1840,7 +1840,7 @@
         <v>15</v>
       </c>
       <c r="C127">
-        <v>0.6850000000000001</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1851,7 +1851,7 @@
         <v>16</v>
       </c>
       <c r="C128">
-        <v>0.66</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1862,7 +1862,7 @@
         <v>17</v>
       </c>
       <c r="C129">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>18</v>
       </c>
       <c r="C130">
-        <v>0.125</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1884,7 +1884,7 @@
         <v>19</v>
       </c>
       <c r="C131">
-        <v>0.145</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1895,7 +1895,7 @@
         <v>20</v>
       </c>
       <c r="C132">
-        <v>0.665</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1906,7 +1906,7 @@
         <v>21</v>
       </c>
       <c r="C133">
-        <v>0.52</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>22</v>
       </c>
       <c r="C134">
-        <v>0.77</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1928,7 +1928,7 @@
         <v>3</v>
       </c>
       <c r="C135">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1939,7 +1939,7 @@
         <v>4</v>
       </c>
       <c r="C136">
-        <v>0.725</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1950,7 +1950,7 @@
         <v>5</v>
       </c>
       <c r="C137">
-        <v>0.725</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1961,7 +1961,7 @@
         <v>6</v>
       </c>
       <c r="C138">
-        <v>0.535</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1972,7 +1972,7 @@
         <v>7</v>
       </c>
       <c r="C139">
-        <v>0.605</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>8</v>
       </c>
       <c r="C140">
-        <v>0.355</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1994,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="C141">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2005,7 +2005,7 @@
         <v>11</v>
       </c>
       <c r="C142">
-        <v>0.5600000000000001</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2016,7 +2016,7 @@
         <v>12</v>
       </c>
       <c r="C143">
-        <v>0.78</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2027,7 +2027,7 @@
         <v>13</v>
       </c>
       <c r="C144">
-        <v>0.945</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>14</v>
       </c>
       <c r="C145">
-        <v>0.61</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2049,7 +2049,7 @@
         <v>15</v>
       </c>
       <c r="C146">
-        <v>0.645</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2060,7 +2060,7 @@
         <v>16</v>
       </c>
       <c r="C147">
-        <v>0.625</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2071,7 +2071,7 @@
         <v>17</v>
       </c>
       <c r="C148">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>18</v>
       </c>
       <c r="C149">
-        <v>0.535</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2093,7 +2093,7 @@
         <v>19</v>
       </c>
       <c r="C150">
-        <v>0.355</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2104,7 +2104,7 @@
         <v>20</v>
       </c>
       <c r="C151">
-        <v>0.39</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2115,7 +2115,7 @@
         <v>21</v>
       </c>
       <c r="C152">
-        <v>0.42</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2126,7 +2126,7 @@
         <v>22</v>
       </c>
       <c r="C153">
-        <v>0.475</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2137,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="C154">
-        <v>0.325</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2148,7 +2148,7 @@
         <v>4</v>
       </c>
       <c r="C155">
-        <v>0.015</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>5</v>
       </c>
       <c r="C156">
-        <v>0.8149999999999999</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>6</v>
       </c>
       <c r="C157">
-        <v>0.72</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2181,7 +2181,7 @@
         <v>7</v>
       </c>
       <c r="C158">
-        <v>0.295</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2203,7 +2203,7 @@
         <v>9</v>
       </c>
       <c r="C160">
-        <v>0.775</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2214,7 +2214,7 @@
         <v>10</v>
       </c>
       <c r="C161">
-        <v>0.055</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2225,7 +2225,7 @@
         <v>12</v>
       </c>
       <c r="C162">
-        <v>0.375</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2236,7 +2236,7 @@
         <v>13</v>
       </c>
       <c r="C163">
-        <v>0.82</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>14</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2258,7 +2258,7 @@
         <v>15</v>
       </c>
       <c r="C165">
-        <v>0.79</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>16</v>
       </c>
       <c r="C166">
-        <v>0.8149999999999999</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2280,7 +2280,7 @@
         <v>17</v>
       </c>
       <c r="C167">
-        <v>0.375</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>18</v>
       </c>
       <c r="C168">
-        <v>0.01</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>20</v>
       </c>
       <c r="C170">
-        <v>0.67</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2324,7 +2324,7 @@
         <v>21</v>
       </c>
       <c r="C171">
-        <v>0.62</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2335,7 +2335,7 @@
         <v>22</v>
       </c>
       <c r="C172">
-        <v>0.435</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>3</v>
       </c>
       <c r="C173">
-        <v>0.065</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2357,7 +2357,7 @@
         <v>4</v>
       </c>
       <c r="C174">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2368,7 +2368,7 @@
         <v>5</v>
       </c>
       <c r="C175">
-        <v>0.145</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>6</v>
       </c>
       <c r="C176">
-        <v>0.325</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2390,7 +2390,7 @@
         <v>7</v>
       </c>
       <c r="C177">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>8</v>
       </c>
       <c r="C178">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>9</v>
       </c>
       <c r="C179">
-        <v>0.075</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2423,7 +2423,7 @@
         <v>10</v>
       </c>
       <c r="C180">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>11</v>
       </c>
       <c r="C181">
-        <v>0.175</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2445,7 +2445,7 @@
         <v>13</v>
       </c>
       <c r="C182">
-        <v>0.105</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>14</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2467,7 +2467,7 @@
         <v>15</v>
       </c>
       <c r="C184">
-        <v>0.285</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2478,7 +2478,7 @@
         <v>16</v>
       </c>
       <c r="C185">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2489,7 +2489,7 @@
         <v>17</v>
       </c>
       <c r="C186">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>19</v>
       </c>
       <c r="C188">
-        <v>0.015</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2522,7 +2522,7 @@
         <v>20</v>
       </c>
       <c r="C189">
-        <v>0.28</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>21</v>
       </c>
       <c r="C190">
-        <v>0.195</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2544,7 +2544,7 @@
         <v>22</v>
       </c>
       <c r="C191">
-        <v>0.47</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2555,7 +2555,7 @@
         <v>3</v>
       </c>
       <c r="C192">
-        <v>0.36</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2566,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="C193">
-        <v>0.28</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2577,7 +2577,7 @@
         <v>5</v>
       </c>
       <c r="C194">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2588,7 +2588,7 @@
         <v>6</v>
       </c>
       <c r="C195">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2599,7 +2599,7 @@
         <v>7</v>
       </c>
       <c r="C196">
-        <v>0.49</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2610,7 +2610,7 @@
         <v>8</v>
       </c>
       <c r="C197">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2621,7 +2621,7 @@
         <v>9</v>
       </c>
       <c r="C198">
-        <v>0.725</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2632,7 +2632,7 @@
         <v>10</v>
       </c>
       <c r="C199">
-        <v>0.295</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2643,7 +2643,7 @@
         <v>11</v>
       </c>
       <c r="C200">
-        <v>0.805</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>12</v>
       </c>
       <c r="C201">
-        <v>0.66</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2665,7 +2665,7 @@
         <v>14</v>
       </c>
       <c r="C202">
-        <v>0.29</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2676,7 +2676,7 @@
         <v>15</v>
       </c>
       <c r="C203">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2687,7 +2687,7 @@
         <v>16</v>
       </c>
       <c r="C204">
-        <v>0.915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2698,7 +2698,7 @@
         <v>17</v>
       </c>
       <c r="C205">
-        <v>0.66</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2709,7 +2709,7 @@
         <v>18</v>
       </c>
       <c r="C206">
-        <v>0.285</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>19</v>
       </c>
       <c r="C207">
-        <v>0.32</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2731,7 +2731,7 @@
         <v>20</v>
       </c>
       <c r="C208">
-        <v>0.87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2742,7 +2742,7 @@
         <v>21</v>
       </c>
       <c r="C209">
-        <v>0.6850000000000001</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2753,7 +2753,7 @@
         <v>22</v>
       </c>
       <c r="C210">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2764,7 +2764,7 @@
         <v>3</v>
       </c>
       <c r="C211">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="C212">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>5</v>
       </c>
       <c r="C213">
-        <v>0.92</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2797,7 +2797,7 @@
         <v>6</v>
       </c>
       <c r="C214">
-        <v>0.945</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2808,7 +2808,7 @@
         <v>7</v>
       </c>
       <c r="C215">
-        <v>0.9</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2819,7 +2819,7 @@
         <v>8</v>
       </c>
       <c r="C216">
-        <v>0.575</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2830,7 +2830,7 @@
         <v>9</v>
       </c>
       <c r="C217">
-        <v>0.995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2841,7 +2841,7 @@
         <v>10</v>
       </c>
       <c r="C218">
-        <v>0.99</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2852,7 +2852,7 @@
         <v>11</v>
       </c>
       <c r="C219">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2863,7 +2863,7 @@
         <v>12</v>
       </c>
       <c r="C220">
-        <v>0.805</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2874,7 +2874,7 @@
         <v>13</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2885,7 +2885,7 @@
         <v>15</v>
       </c>
       <c r="C222">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2896,7 +2896,7 @@
         <v>16</v>
       </c>
       <c r="C223">
-        <v>0.92</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2907,7 +2907,7 @@
         <v>17</v>
       </c>
       <c r="C224">
-        <v>0.805</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2918,7 +2918,7 @@
         <v>18</v>
       </c>
       <c r="C225">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2929,7 +2929,7 @@
         <v>19</v>
       </c>
       <c r="C226">
-        <v>0.575</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2940,7 +2940,7 @@
         <v>20</v>
       </c>
       <c r="C227">
-        <v>0.8149999999999999</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2951,7 +2951,7 @@
         <v>21</v>
       </c>
       <c r="C228">
-        <v>0.84</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2962,7 +2962,7 @@
         <v>22</v>
       </c>
       <c r="C229">
-        <v>0.675</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2973,7 +2973,7 @@
         <v>3</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2984,7 +2984,7 @@
         <v>4</v>
       </c>
       <c r="C231">
-        <v>0.025</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2995,7 +2995,7 @@
         <v>5</v>
       </c>
       <c r="C232">
-        <v>0.52</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3006,7 +3006,7 @@
         <v>6</v>
       </c>
       <c r="C233">
-        <v>0.45</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3017,7 +3017,7 @@
         <v>7</v>
       </c>
       <c r="C234">
-        <v>0.225</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>8</v>
       </c>
       <c r="C235">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3039,7 +3039,7 @@
         <v>9</v>
       </c>
       <c r="C236">
-        <v>0.405</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3050,7 +3050,7 @@
         <v>10</v>
       </c>
       <c r="C237">
-        <v>0.045</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3061,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="C238">
-        <v>0.46</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3072,7 +3072,7 @@
         <v>12</v>
       </c>
       <c r="C239">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3083,7 +3083,7 @@
         <v>13</v>
       </c>
       <c r="C240">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3094,7 +3094,7 @@
         <v>14</v>
       </c>
       <c r="C241">
-        <v>0.025</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3105,7 +3105,7 @@
         <v>16</v>
       </c>
       <c r="C242">
-        <v>0.58</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3116,7 +3116,7 @@
         <v>17</v>
       </c>
       <c r="C243">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3127,7 +3127,7 @@
         <v>18</v>
       </c>
       <c r="C244">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3138,7 +3138,7 @@
         <v>19</v>
       </c>
       <c r="C245">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3149,7 +3149,7 @@
         <v>20</v>
       </c>
       <c r="C246">
-        <v>0.425</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3160,7 +3160,7 @@
         <v>21</v>
       </c>
       <c r="C247">
-        <v>0.08500000000000001</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3171,7 +3171,7 @@
         <v>22</v>
       </c>
       <c r="C248">
-        <v>0.52</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3193,7 +3193,7 @@
         <v>4</v>
       </c>
       <c r="C250">
-        <v>0.03</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3204,7 +3204,7 @@
         <v>5</v>
       </c>
       <c r="C251">
-        <v>0.52</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3215,7 +3215,7 @@
         <v>6</v>
       </c>
       <c r="C252">
-        <v>0.46</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3226,7 +3226,7 @@
         <v>7</v>
       </c>
       <c r="C253">
-        <v>0.225</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3237,7 +3237,7 @@
         <v>8</v>
       </c>
       <c r="C254">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3248,7 +3248,7 @@
         <v>9</v>
       </c>
       <c r="C255">
-        <v>0.395</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>10</v>
       </c>
       <c r="C256">
-        <v>0.045</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3270,7 +3270,7 @@
         <v>11</v>
       </c>
       <c r="C257">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3281,7 +3281,7 @@
         <v>12</v>
       </c>
       <c r="C258">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3292,7 +3292,7 @@
         <v>13</v>
       </c>
       <c r="C259">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3303,7 +3303,7 @@
         <v>14</v>
       </c>
       <c r="C260">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3314,7 +3314,7 @@
         <v>15</v>
       </c>
       <c r="C261">
-        <v>0.5649999999999999</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="C262">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3336,7 +3336,7 @@
         <v>18</v>
       </c>
       <c r="C263">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3347,7 +3347,7 @@
         <v>19</v>
       </c>
       <c r="C264">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3358,7 +3358,7 @@
         <v>20</v>
       </c>
       <c r="C265">
-        <v>0.435</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>21</v>
       </c>
       <c r="C266">
-        <v>0.095</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3380,7 +3380,7 @@
         <v>22</v>
       </c>
       <c r="C267">
-        <v>0.545</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3391,7 +3391,7 @@
         <v>3</v>
       </c>
       <c r="C268">
-        <v>0.065</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3402,7 +3402,7 @@
         <v>4</v>
       </c>
       <c r="C269">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3413,7 +3413,7 @@
         <v>5</v>
       </c>
       <c r="C270">
-        <v>0.145</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3424,7 +3424,7 @@
         <v>6</v>
       </c>
       <c r="C271">
-        <v>0.325</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3435,7 +3435,7 @@
         <v>7</v>
       </c>
       <c r="C272">
-        <v>0.06</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3457,7 +3457,7 @@
         <v>9</v>
       </c>
       <c r="C274">
-        <v>0.075</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>10</v>
       </c>
       <c r="C275">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3479,7 +3479,7 @@
         <v>11</v>
       </c>
       <c r="C276">
-        <v>0.175</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3490,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="C277">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3501,7 +3501,7 @@
         <v>13</v>
       </c>
       <c r="C278">
-        <v>0.105</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3512,7 +3512,7 @@
         <v>14</v>
       </c>
       <c r="C279">
-        <v>0</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3523,7 +3523,7 @@
         <v>15</v>
       </c>
       <c r="C280">
-        <v>0.285</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3534,7 +3534,7 @@
         <v>16</v>
       </c>
       <c r="C281">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3567,7 +3567,7 @@
         <v>20</v>
       </c>
       <c r="C284">
-        <v>0.28</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3578,7 +3578,7 @@
         <v>21</v>
       </c>
       <c r="C285">
-        <v>0.195</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3589,7 +3589,7 @@
         <v>22</v>
       </c>
       <c r="C286">
-        <v>0.47</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3600,7 +3600,7 @@
         <v>3</v>
       </c>
       <c r="C287">
-        <v>0.52</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3611,7 +3611,7 @@
         <v>4</v>
       </c>
       <c r="C288">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3622,7 +3622,7 @@
         <v>5</v>
       </c>
       <c r="C289">
-        <v>0.325</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3633,7 +3633,7 @@
         <v>6</v>
       </c>
       <c r="C290">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="C291">
-        <v>0.495</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3655,7 +3655,7 @@
         <v>8</v>
       </c>
       <c r="C292">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3666,7 +3666,7 @@
         <v>9</v>
       </c>
       <c r="C293">
-        <v>0.725</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3677,7 +3677,7 @@
         <v>10</v>
       </c>
       <c r="C294">
-        <v>0.61</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3688,7 +3688,7 @@
         <v>11</v>
       </c>
       <c r="C295">
-        <v>0.455</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3699,7 +3699,7 @@
         <v>12</v>
       </c>
       <c r="C296">
-        <v>0.645</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3710,7 +3710,7 @@
         <v>13</v>
       </c>
       <c r="C297">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3721,7 +3721,7 @@
         <v>14</v>
       </c>
       <c r="C298">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3732,7 +3732,7 @@
         <v>15</v>
       </c>
       <c r="C299">
-        <v>0.5</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3743,7 +3743,7 @@
         <v>16</v>
       </c>
       <c r="C300">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3754,7 +3754,7 @@
         <v>17</v>
       </c>
       <c r="C301">
-        <v>0.645</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3765,7 +3765,7 @@
         <v>19</v>
       </c>
       <c r="C302">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3776,7 +3776,7 @@
         <v>20</v>
       </c>
       <c r="C303">
-        <v>0.28</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3787,7 +3787,7 @@
         <v>21</v>
       </c>
       <c r="C304">
-        <v>0.32</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3798,7 +3798,7 @@
         <v>22</v>
       </c>
       <c r="C305">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3809,7 +3809,7 @@
         <v>3</v>
       </c>
       <c r="C306">
-        <v>0.675</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3820,7 +3820,7 @@
         <v>4</v>
       </c>
       <c r="C307">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3831,7 +3831,7 @@
         <v>5</v>
       </c>
       <c r="C308">
-        <v>0.72</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3842,7 +3842,7 @@
         <v>6</v>
       </c>
       <c r="C309">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3853,7 +3853,7 @@
         <v>7</v>
       </c>
       <c r="C310">
-        <v>0.875</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3864,7 +3864,7 @@
         <v>8</v>
       </c>
       <c r="C311">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3875,7 +3875,7 @@
         <v>9</v>
       </c>
       <c r="C312">
-        <v>0.97</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3886,7 +3886,7 @@
         <v>10</v>
       </c>
       <c r="C313">
-        <v>0.925</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3897,7 +3897,7 @@
         <v>11</v>
       </c>
       <c r="C314">
-        <v>0.915</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3908,7 +3908,7 @@
         <v>12</v>
       </c>
       <c r="C315">
-        <v>0.8149999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3919,7 +3919,7 @@
         <v>13</v>
       </c>
       <c r="C316">
-        <v>0.9399999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3930,7 +3930,7 @@
         <v>14</v>
       </c>
       <c r="C317">
-        <v>0.82</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3941,7 +3941,7 @@
         <v>15</v>
       </c>
       <c r="C318">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3952,7 +3952,7 @@
         <v>16</v>
       </c>
       <c r="C319">
-        <v>0.72</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3963,7 +3963,7 @@
         <v>17</v>
       </c>
       <c r="C320">
-        <v>0.8149999999999999</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3974,7 +3974,7 @@
         <v>18</v>
       </c>
       <c r="C321">
-        <v>0.6850000000000001</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3985,7 +3985,7 @@
         <v>20</v>
       </c>
       <c r="C322">
-        <v>0.87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3996,7 +3996,7 @@
         <v>21</v>
       </c>
       <c r="C323">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4007,7 +4007,7 @@
         <v>22</v>
       </c>
       <c r="C324">
-        <v>0.57</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -4018,7 +4018,7 @@
         <v>3</v>
       </c>
       <c r="C325">
-        <v>0.365</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4029,7 +4029,7 @@
         <v>4</v>
       </c>
       <c r="C326">
-        <v>0.13</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4040,7 +4040,7 @@
         <v>5</v>
       </c>
       <c r="C327">
-        <v>0.98</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4051,7 +4051,7 @@
         <v>6</v>
       </c>
       <c r="C328">
-        <v>0.9350000000000001</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4062,7 +4062,7 @@
         <v>7</v>
       </c>
       <c r="C329">
-        <v>0.48</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4073,7 +4073,7 @@
         <v>8</v>
       </c>
       <c r="C330">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4084,7 +4084,7 @@
         <v>9</v>
       </c>
       <c r="C331">
-        <v>0.905</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4095,7 +4095,7 @@
         <v>10</v>
       </c>
       <c r="C332">
-        <v>0.155</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4106,7 +4106,7 @@
         <v>11</v>
       </c>
       <c r="C333">
-        <v>0.895</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4117,7 +4117,7 @@
         <v>12</v>
       </c>
       <c r="C334">
-        <v>0.415</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4128,7 +4128,7 @@
         <v>13</v>
       </c>
       <c r="C335">
-        <v>0.98</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4139,7 +4139,7 @@
         <v>14</v>
       </c>
       <c r="C336">
-        <v>0.125</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4150,7 +4150,7 @@
         <v>15</v>
       </c>
       <c r="C337">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4161,7 +4161,7 @@
         <v>16</v>
       </c>
       <c r="C338">
-        <v>0.985</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4172,7 +4172,7 @@
         <v>17</v>
       </c>
       <c r="C339">
-        <v>0.415</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4183,7 +4183,7 @@
         <v>18</v>
       </c>
       <c r="C340">
-        <v>0.125</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4194,7 +4194,7 @@
         <v>19</v>
       </c>
       <c r="C341">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4205,7 +4205,7 @@
         <v>21</v>
       </c>
       <c r="C342">
-        <v>0.8100000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4216,7 +4216,7 @@
         <v>22</v>
       </c>
       <c r="C343">
-        <v>0.545</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4227,7 +4227,7 @@
         <v>3</v>
       </c>
       <c r="C344">
-        <v>0.36</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4238,7 +4238,7 @@
         <v>4</v>
       </c>
       <c r="C345">
-        <v>0.035</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4249,7 +4249,7 @@
         <v>5</v>
       </c>
       <c r="C346">
-        <v>0.965</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4260,7 +4260,7 @@
         <v>6</v>
       </c>
       <c r="C347">
-        <v>0.835</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4271,7 +4271,7 @@
         <v>7</v>
       </c>
       <c r="C348">
-        <v>0.37</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4282,7 +4282,7 @@
         <v>8</v>
       </c>
       <c r="C349">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4293,7 +4293,7 @@
         <v>9</v>
       </c>
       <c r="C350">
-        <v>0.9</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4304,7 +4304,7 @@
         <v>10</v>
       </c>
       <c r="C351">
-        <v>0.06</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4315,7 +4315,7 @@
         <v>11</v>
       </c>
       <c r="C352">
-        <v>0.775</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4326,7 +4326,7 @@
         <v>12</v>
       </c>
       <c r="C353">
-        <v>0.41</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4337,7 +4337,7 @@
         <v>13</v>
       </c>
       <c r="C354">
-        <v>0.97</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4348,7 +4348,7 @@
         <v>14</v>
       </c>
       <c r="C355">
-        <v>0.025</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4359,7 +4359,7 @@
         <v>15</v>
       </c>
       <c r="C356">
-        <v>0.945</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4370,7 +4370,7 @@
         <v>16</v>
       </c>
       <c r="C357">
-        <v>0.965</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4381,7 +4381,7 @@
         <v>17</v>
       </c>
       <c r="C358">
-        <v>0.41</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4392,7 +4392,7 @@
         <v>18</v>
       </c>
       <c r="C359">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4403,7 +4403,7 @@
         <v>19</v>
       </c>
       <c r="C360">
-        <v>0.035</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4414,7 +4414,7 @@
         <v>20</v>
       </c>
       <c r="C361">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4425,7 +4425,7 @@
         <v>22</v>
       </c>
       <c r="C362">
-        <v>0.465</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4436,7 +4436,7 @@
         <v>3</v>
       </c>
       <c r="C363">
-        <v>0.31</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4447,7 +4447,7 @@
         <v>4</v>
       </c>
       <c r="C364">
-        <v>0.78</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4458,7 +4458,7 @@
         <v>5</v>
       </c>
       <c r="C365">
-        <v>0.57</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4469,7 +4469,7 @@
         <v>6</v>
       </c>
       <c r="C366">
-        <v>0.745</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4480,7 +4480,7 @@
         <v>7</v>
       </c>
       <c r="C367">
-        <v>0.72</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4491,7 +4491,7 @@
         <v>8</v>
       </c>
       <c r="C368">
-        <v>0.365</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4502,7 +4502,7 @@
         <v>9</v>
       </c>
       <c r="C369">
-        <v>0.725</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4513,7 +4513,7 @@
         <v>10</v>
       </c>
       <c r="C370">
-        <v>0.785</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4524,7 +4524,7 @@
         <v>11</v>
       </c>
       <c r="C371">
-        <v>0.76</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4535,7 +4535,7 @@
         <v>12</v>
       </c>
       <c r="C372">
-        <v>0.355</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4546,7 +4546,7 @@
         <v>13</v>
       </c>
       <c r="C373">
-        <v>0.725</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4557,7 +4557,7 @@
         <v>14</v>
       </c>
       <c r="C374">
-        <v>0.6850000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4568,7 +4568,7 @@
         <v>15</v>
       </c>
       <c r="C375">
-        <v>0.775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4579,7 +4579,7 @@
         <v>16</v>
       </c>
       <c r="C376">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4590,7 +4590,7 @@
         <v>17</v>
       </c>
       <c r="C377">
-        <v>0.355</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4601,7 +4601,7 @@
         <v>18</v>
       </c>
       <c r="C378">
-        <v>0.5600000000000001</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4612,7 +4612,7 @@
         <v>19</v>
       </c>
       <c r="C379">
-        <v>0.365</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4623,7 +4623,7 @@
         <v>20</v>
       </c>
       <c r="C380">
-        <v>0.695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4634,7 +4634,7 @@
         <v>21</v>
       </c>
       <c r="C381">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
